--- a/ПКМ/resdata PKM Temp=-20, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-20, Volume=10x15x6.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8304127298875755</v>
+        <v>0.9157199442642342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8803248875783575</v>
+        <v>0.9543880467676539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9433025711358873</v>
+        <v>0.9594838780364215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6064401625762452</v>
+        <v>0.578563377448143</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.87152709100228</v>
+        <v>52.8422149519941</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.9954195104314</v>
+        <v>35.32059907573103</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493225471540767</v>
+        <v>0.8493783895428892</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.37755854481632</v>
+        <v>11.32481315791683</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8355687825144849</v>
+        <v>0.8340954205056154</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.298285510064924</v>
+        <v>3.851930027956088</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8107839554451765</v>
+        <v>0.8132564768795759</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.200263525689643</v>
+        <v>2.344872690390156</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.333081498616097</v>
+        <v>0.4550873366539955</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1101863649686201</v>
+        <v>0.1457338967615066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1229501763115877</v>
+        <v>0.1622182245891385</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8961871245257849</v>
+        <v>0.8983817763424363</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40370.35615394891</v>
+        <v>40226.8482356467</v>
       </c>
       <c r="C2" t="n">
-        <v>40778.13752924132</v>
+        <v>40633.18003600676</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89229.48484711822</v>
+        <v>87485.79421044781</v>
       </c>
       <c r="C3" t="n">
-        <v>90130.79277486689</v>
+        <v>88369.48910146244</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37681.93196857697</v>
+        <v>38224.61836522772</v>
       </c>
       <c r="C4" t="n">
-        <v>38062.55754401714</v>
+        <v>38610.72562144214</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507.8816304187281</v>
+        <v>509.0128774183472</v>
       </c>
       <c r="C5" t="n">
-        <v>513.0117478977052</v>
+        <v>514.1544216346941</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32325.525604929</v>
+        <v>32821.12702695866</v>
       </c>
       <c r="C6" t="n">
-        <v>32652.04606558485</v>
+        <v>33152.65356258451</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36104.52172827937</v>
+        <v>37084.14895015999</v>
       </c>
       <c r="C7" t="n">
-        <v>36469.21386694886</v>
+        <v>37458.73631329292</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.14188662478262</v>
+        <v>34.95951922298226</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103.7782126522268</v>
+        <v>101.1587207873238</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.183555638635893</v>
+        <v>8.985414905339251</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.2814855572379</v>
+        <v>460.5289590733512</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>865.2394189998147</v>
+        <v>865.5192631464582</v>
       </c>
       <c r="E6" t="n">
         <v>517.99365816</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.5350249523678</v>
+        <v>306.910556176018</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.2396192821376</v>
+        <v>694.9197051994254</v>
       </c>
       <c r="E7" t="n">
         <v>517.99365816</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.6020770088592</v>
+        <v>238.0429996313183</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.7588788436896</v>
+        <v>620.3807122731531</v>
       </c>
       <c r="E8" t="n">
         <v>517.99365816</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.6797152971658</v>
+        <v>237.1190452839465</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.7684965488174</v>
+        <v>619.3881240174184</v>
       </c>
       <c r="E9" t="n">
         <v>517.99365816</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.6302920239966</v>
+        <v>177.1871723717829</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.7328868435358</v>
+        <v>555.3860787407478</v>
       </c>
       <c r="E10" t="n">
         <v>517.99365816</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.9674025328682</v>
+        <v>108.7227879144948</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.3281371087734</v>
+        <v>483.0710306253856</v>
       </c>
       <c r="E11" t="n">
         <v>517.99365816</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.8052244909976</v>
+        <v>502.0820781399821</v>
       </c>
       <c r="C3" t="n">
-        <v>7.695328331608383</v>
+        <v>8.134496630563456</v>
       </c>
       <c r="D3" t="n">
-        <v>3410.036912161979</v>
+        <v>3403.042835019891</v>
       </c>
       <c r="E3" t="n">
-        <v>61.90685336455753</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.4536047984537</v>
+        <v>299.007846038144</v>
       </c>
       <c r="C4" t="n">
-        <v>8.051214094788282</v>
+        <v>8.468508764435363</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.919525098634</v>
+        <v>2751.524451926014</v>
       </c>
       <c r="E4" t="n">
-        <v>61.90685336455753</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.884658513678</v>
+        <v>298.1490330512788</v>
       </c>
       <c r="C5" t="n">
-        <v>8.051214094788282</v>
+        <v>8.468508764435363</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.568006861824</v>
+        <v>1334.559696576619</v>
       </c>
       <c r="E5" t="n">
-        <v>61.90685336455753</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.4901844687433</v>
+        <v>168.1850313546868</v>
       </c>
       <c r="C6" t="n">
-        <v>8.051214094788282</v>
+        <v>8.468508764435363</v>
       </c>
       <c r="D6" t="n">
-        <v>707.8797249596275</v>
+        <v>715.4568997138331</v>
       </c>
       <c r="E6" t="n">
-        <v>61.90685336455753</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3645086843555</v>
+        <v>165.7768371650073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.689961373118021</v>
+        <v>0.714535697035078</v>
       </c>
       <c r="D7" t="n">
-        <v>694.465818667259</v>
+        <v>700.6251000441299</v>
       </c>
       <c r="E7" t="n">
-        <v>61.90685336455753</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.4276534849579</v>
+        <v>177.6486005763468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.682812120287162</v>
+        <v>0.7074234778635887</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.129342191288</v>
+        <v>2793.295185388286</v>
       </c>
       <c r="E8" t="n">
-        <v>16.93643180922382</v>
+        <v>17.15340842377149</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3645085488427</v>
+        <v>165.7768370264938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.689961373118021</v>
+        <v>0.714535697035078</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.141930308224</v>
+        <v>2763.618713464645</v>
       </c>
       <c r="E9" t="n">
-        <v>16.93643180922382</v>
+        <v>17.15340842377149</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.3645086843555</v>
+        <v>165.7768371650073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.689961373118021</v>
+        <v>0.714535697035078</v>
       </c>
       <c r="D10" t="n">
-        <v>728.6229181877884</v>
+        <v>733.1312532827094</v>
       </c>
       <c r="E10" t="n">
-        <v>78.84328517378135</v>
+        <v>78.89372077000482</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3645086843555</v>
+        <v>165.7768371650073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.689961373118021</v>
+        <v>0.714535697035078</v>
       </c>
       <c r="D11" t="n">
-        <v>728.6229181877884</v>
+        <v>733.1312532827094</v>
       </c>
       <c r="E11" t="n">
-        <v>78.84301303578218</v>
+        <v>78.8962159026575</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.52605313168618</v>
+        <v>62.70861145402711</v>
       </c>
       <c r="C12" t="n">
-        <v>0.689961373118021</v>
+        <v>0.714535697035078</v>
       </c>
       <c r="D12" t="n">
-        <v>270.6884782849346</v>
+        <v>263.0818972839213</v>
       </c>
       <c r="E12" t="n">
-        <v>78.84328517378135</v>
+        <v>78.89372077000482</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.52668764951136</v>
+        <v>62.71051426178298</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.6911342340395</v>
+        <v>263.0898603059026</v>
       </c>
       <c r="E13" t="n">
-        <v>74.65334597889407</v>
+        <v>78.89358390512722</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.52668764951136</v>
+        <v>62.71051426178298</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>270.6911342340395</v>
+        <v>263.0898603059026</v>
       </c>
       <c r="E14" t="n">
-        <v>74.65334597889407</v>
+        <v>78.89358390512722</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.6529645499839</v>
+        <v>106.535778829653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1324351660352647</v>
+        <v>0.1274731967708179</v>
       </c>
       <c r="D15" t="n">
-        <v>451.4869254187028</v>
+        <v>446.7638359024011</v>
       </c>
       <c r="E15" t="n">
-        <v>62.53916561015569</v>
+        <v>62.87120305951906</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.38933280883515</v>
+        <v>72.21089456918014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1324353518381279</v>
+        <v>0.1274777363568791</v>
       </c>
       <c r="D16" t="n">
-        <v>303.1609976838668</v>
+        <v>302.40906264259</v>
       </c>
       <c r="E16" t="n">
-        <v>62.54002976991107</v>
+        <v>62.87218997888961</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.8294212651723</v>
+        <v>89.24840281363842</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>376.1157868372765</v>
+        <v>373.6830625807041</v>
       </c>
       <c r="E19" t="n">
         <v>81.44808552031228</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.3191668151798</v>
+        <v>121.6008690110098</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2071152940382637</v>
+        <v>0.2089622086909482</v>
       </c>
       <c r="D20" t="n">
-        <v>2688.85402676083</v>
+        <v>2679.225174357421</v>
       </c>
       <c r="E20" t="n">
-        <v>14.84972638714905</v>
+        <v>16.23180540570284</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.694477609369</v>
+        <v>119.9745129515153</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1967595293363505</v>
+        <v>0.1985140982564008</v>
       </c>
       <c r="D21" t="n">
-        <v>502.5139353809897</v>
+        <v>503.7034257185791</v>
       </c>
       <c r="E21" t="n">
-        <v>14.84972638714905</v>
+        <v>16.23180540570284</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.6270728641517</v>
+        <v>103.5862644339335</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>438.0735540822033</v>
+        <v>433.7156891848796</v>
       </c>
       <c r="E22" t="n">
         <v>646.562632065552</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.2923238019668</v>
+        <v>66.21913237675524</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.1654724814808</v>
+        <v>108.0381301021471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1394054379318576</v>
+        <v>0.1341823123903347</v>
       </c>
       <c r="D25" t="n">
-        <v>2633.702823311774</v>
+        <v>2617.754234571823</v>
       </c>
       <c r="E25" t="n">
-        <v>47.68948070775828</v>
+        <v>46.64064038172281</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.0002826270219</v>
+        <v>499.4540537112924</v>
       </c>
       <c r="C26" t="n">
-        <v>7.114845924797042</v>
+        <v>7.590857298231353</v>
       </c>
       <c r="D26" t="n">
-        <v>3410.036912161979</v>
+        <v>3403.042835019891</v>
       </c>
       <c r="E26" t="n">
-        <v>57.7161624788197</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F26" t="n">
-        <v>6.79110482997507</v>
+        <v>6.753908358100052</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.9744348758699</v>
+        <v>189.184080274833</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5037219672133501</v>
+        <v>0.5270418936194551</v>
       </c>
       <c r="D27" t="n">
-        <v>2838.352689002827</v>
+        <v>2830.959576392096</v>
       </c>
       <c r="E27" t="n">
-        <v>57.7161624788197</v>
+        <v>61.74031234623332</v>
       </c>
       <c r="F27" t="n">
-        <v>7.020420596659021</v>
+        <v>6.984223417462951</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4920898902212</v>
+        <v>174.7674838018764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5853544133183575</v>
+        <v>0.6107793628391119</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.129342191288</v>
+        <v>2793.295185388286</v>
       </c>
       <c r="E28" t="n">
-        <v>16.93643180922382</v>
+        <v>17.15340842377149</v>
       </c>
       <c r="F28" t="n">
-        <v>6.852076373328383</v>
+        <v>6.835884173948934</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.1473846227365</v>
+        <v>185.4505052892536</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5037219672133501</v>
+        <v>0.5270418936194551</v>
       </c>
       <c r="D29" t="n">
-        <v>2827.865999709123</v>
+        <v>2822.770424256599</v>
       </c>
       <c r="E29" t="n">
-        <v>74.65259428804352</v>
+        <v>78.89372077000482</v>
       </c>
       <c r="F29" t="n">
-        <v>6.997756670622985</v>
+        <v>6.966438810671026</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.3193127211964</v>
+        <v>121.6008865348544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2071189737660173</v>
+        <v>0.2089586371507167</v>
       </c>
       <c r="D30" t="n">
-        <v>2688.854641245477</v>
+        <v>2679.225246676098</v>
       </c>
       <c r="E30" t="n">
-        <v>74.65259428804352</v>
+        <v>78.89372077000482</v>
       </c>
       <c r="F30" t="n">
-        <v>7.067105499342965</v>
+        <v>7.038767089457446</v>
       </c>
       <c r="G30" t="n">
-        <v>99.13660352781537</v>
+        <v>98.67964548719137</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.1653211965137</v>
+        <v>108.0382597331687</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1394047259504021</v>
+        <v>0.1341829035874418</v>
       </c>
       <c r="D31" t="n">
-        <v>2633.702048437734</v>
+        <v>2617.754836546305</v>
       </c>
       <c r="E31" t="n">
-        <v>59.8029093856461</v>
+        <v>62.66315809220857</v>
       </c>
       <c r="F31" t="n">
-        <v>7.100771927722795</v>
+        <v>7.075796313526808</v>
       </c>
       <c r="G31" t="n">
-        <v>97.4869423317331</v>
+        <v>96.85387587187851</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.04601086822998</v>
+        <v>69.10752512220671</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02293132338962647</v>
+        <v>0.03001612555791706</v>
       </c>
       <c r="D32" t="n">
-        <v>2633.702048437734</v>
+        <v>2617.754836546305</v>
       </c>
       <c r="E32" t="n">
-        <v>12.113316208983</v>
+        <v>16.02139392623761</v>
       </c>
       <c r="F32" t="n">
-        <v>7.917338855178313</v>
+        <v>7.747373869846397</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>99.70820919896769</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.400140191589</v>
+        <v>23.77224333874835</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002710603773003916</v>
+        <v>0.002945190672621883</v>
       </c>
       <c r="D33" t="n">
-        <v>2534.615761496792</v>
+        <v>2471.395992791141</v>
       </c>
       <c r="E33" t="n">
-        <v>12.113316208983</v>
+        <v>16.02139392623761</v>
       </c>
       <c r="F33" t="n">
-        <v>8.588620296142551</v>
+        <v>8.337586347314806</v>
       </c>
       <c r="G33" t="n">
-        <v>99.70683455710213</v>
+        <v>97.01853034175515</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.400140191589</v>
+        <v>23.77224333874835</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002710603773003916</v>
+        <v>0.002945190672621883</v>
       </c>
       <c r="D34" t="n">
-        <v>93.95566767714826</v>
+        <v>99.69469831534559</v>
       </c>
       <c r="E34" t="n">
-        <v>12.113316208983</v>
+        <v>16.02139392623761</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.42123437033041</v>
+        <v>25.79433127294266</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.0519682333005</v>
+        <v>108.7909041406604</v>
       </c>
       <c r="E35" t="n">
-        <v>12.113316208983</v>
+        <v>16.02139392623761</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
